--- a/excel/manager.xlsx
+++ b/excel/manager.xlsx
@@ -18,6 +18,43 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>作者</author>
+  </authors>
+  <commentList>
+    <comment ref="F1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+1.矿产自动生产（参数：无）
+2.矿产升级便宜百分比（参数：百分比）</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="26">
   <si>
@@ -125,7 +162,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -139,6 +176,21 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="3">
@@ -469,11 +521,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -659,5 +711,6 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/excel/manager.xlsx
+++ b/excel/manager.xlsx
@@ -522,10 +522,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="J1" sqref="J1:P1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -706,7 +706,6 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/excel/manager.xlsx
+++ b/excel/manager.xlsx
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
   <si>
     <t>resource</t>
   </si>
@@ -104,10 +104,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>effect</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -128,10 +124,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>4,10</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -155,6 +147,10 @@
   </si>
   <si>
     <t>2,2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int[]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -162,7 +158,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -191,6 +187,13 @@
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -234,7 +237,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -242,6 +245,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -525,10 +529,10 @@
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1:P1048576"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="3" max="3" width="11.75" customWidth="1"/>
     <col min="4" max="4" width="12.25" customWidth="1"/>
@@ -538,7 +542,7 @@
     <col min="8" max="8" width="18.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -555,19 +559,19 @@
         <v>9</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>17</v>
-      </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -584,19 +588,19 @@
         <v>0</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>14</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
@@ -612,20 +616,20 @@
       <c r="E3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>12</v>
+      <c r="F3" s="5" t="s">
+        <v>24</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9">
       <c r="A4" s="2">
         <v>101</v>
       </c>
@@ -637,7 +641,7 @@
         <v>30201</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F4" s="2">
         <v>1</v>
@@ -652,7 +656,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9">
       <c r="A5" s="2">
         <v>102</v>
       </c>
@@ -664,10 +668,10 @@
         <v>30202</v>
       </c>
       <c r="E5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" s="3" t="s">
         <v>23</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>25</v>
       </c>
       <c r="G5" s="4">
         <v>-1</v>
@@ -679,7 +683,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9">
       <c r="A6" s="2">
         <v>103</v>
       </c>
@@ -691,10 +695,10 @@
         <v>30203</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G6" s="4">
         <v>-1</v>

--- a/excel/manager.xlsx
+++ b/excel/manager.xlsx
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="26">
   <si>
     <t>resource</t>
   </si>
@@ -151,6 +151,10 @@
   </si>
   <si>
     <t>int[]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>long</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -529,7 +533,7 @@
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -626,7 +630,7 @@
         <v>10</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:9">

--- a/excel/manager.xlsx
+++ b/excel/manager.xlsx
@@ -124,10 +124,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>4,10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>消耗类型（道具id）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -155,6 +151,10 @@
   </si>
   <si>
     <t>long</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,10</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -533,7 +533,7 @@
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -566,10 +566,10 @@
         <v>15</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>16</v>
@@ -621,7 +621,7 @@
         <v>11</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>10</v>
@@ -630,7 +630,7 @@
         <v>10</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -645,7 +645,7 @@
         <v>30201</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F4" s="2">
         <v>1</v>
@@ -672,10 +672,10 @@
         <v>30202</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G5" s="4">
         <v>-1</v>
@@ -699,10 +699,10 @@
         <v>30203</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="G6" s="4">
         <v>-1</v>

--- a/excel/manager.xlsx
+++ b/excel/manager.xlsx
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="27">
   <si>
     <t>resource</t>
   </si>
@@ -155,6 +155,10 @@
   </si>
   <si>
     <t>2,10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int[]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -533,7 +537,7 @@
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -624,7 +628,7 @@
         <v>23</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>10</v>

--- a/excel/manager.xlsx
+++ b/excel/manager.xlsx
@@ -537,7 +537,7 @@
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+      <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -685,7 +685,7 @@
         <v>-1</v>
       </c>
       <c r="H5" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I5" s="2">
         <v>1000</v>
@@ -712,7 +712,7 @@
         <v>-1</v>
       </c>
       <c r="H6" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I6" s="2">
         <v>2000</v>

--- a/excel/manager.xlsx
+++ b/excel/manager.xlsx
@@ -537,7 +537,7 @@
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -712,7 +712,7 @@
         <v>-1</v>
       </c>
       <c r="H6" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I6" s="2">
         <v>2000</v>

--- a/excel/manager.xlsx
+++ b/excel/manager.xlsx
@@ -46,8 +46,8 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-1.矿产自动生产（参数：无）
-2.矿产升级便宜百分比（参数：百分比）</t>
+1.矿产自动生产（参数：类型id，无）
+2.矿产升级便宜万分比（参数：类型id，参数）</t>
         </r>
       </text>
     </comment>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="39">
   <si>
     <t>resource</t>
   </si>
@@ -142,10 +142,6 @@
     <t>jili_3</t>
   </si>
   <si>
-    <t>2,2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>int[]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -154,12 +150,55 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2,10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>int[]</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jili_4</t>
+  </si>
+  <si>
+    <t>jili_5</t>
+  </si>
+  <si>
+    <t>jili_6</t>
+  </si>
+  <si>
+    <t>jili_7</t>
+  </si>
+  <si>
+    <t>jili_8</t>
+  </si>
+  <si>
+    <t>jili_9</t>
+  </si>
+  <si>
+    <t>jili_10</t>
+  </si>
+  <si>
+    <t>自动经理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>减费经理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水晶减费经理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,9990</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,1000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>110000000000</t>
+  </si>
+  <si>
+    <t>540000000000</t>
   </si>
 </sst>
 </file>
@@ -245,14 +284,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -534,20 +570,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:I33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
+    <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.75" customWidth="1"/>
     <col min="4" max="4" width="12.25" customWidth="1"/>
     <col min="5" max="5" width="10.625" customWidth="1"/>
     <col min="6" max="6" width="12" customWidth="1"/>
     <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="18.875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -624,24 +662,26 @@
       <c r="E3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="5" t="s">
-        <v>23</v>
+      <c r="F3" s="4" t="s">
+        <v>22</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>10</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="2">
         <v>101</v>
       </c>
-      <c r="B4" s="2"/>
+      <c r="B4" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="C4" s="2">
         <v>30101</v>
       </c>
@@ -654,14 +694,14 @@
       <c r="F4" s="2">
         <v>1</v>
       </c>
-      <c r="G4" s="4">
-        <v>-1</v>
+      <c r="G4" s="2">
+        <v>101</v>
       </c>
       <c r="H4" s="2">
         <v>1</v>
       </c>
-      <c r="I4" s="2">
-        <v>100000</v>
+      <c r="I4" s="3">
+        <v>1000</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -678,17 +718,17 @@
       <c r="E5" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G5" s="4">
-        <v>-1</v>
+      <c r="F5" s="2">
+        <v>1</v>
+      </c>
+      <c r="G5" s="2">
+        <v>102</v>
       </c>
       <c r="H5" s="2">
-        <v>4</v>
-      </c>
-      <c r="I5" s="2">
-        <v>1000</v>
+        <v>1</v>
+      </c>
+      <c r="I5" s="3">
+        <v>17000</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -705,17 +745,750 @@
       <c r="E6" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="F6" s="2">
+        <v>1</v>
+      </c>
+      <c r="G6" s="2">
+        <v>103</v>
+      </c>
+      <c r="H6" s="2">
+        <v>1</v>
+      </c>
+      <c r="I6" s="3">
+        <v>90000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="2">
+        <v>104</v>
+      </c>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2">
+        <v>30104</v>
+      </c>
+      <c r="D7" s="2">
+        <v>30204</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="G6" s="4">
-        <v>-1</v>
-      </c>
-      <c r="H6" s="2">
+      <c r="F7" s="2">
+        <v>1</v>
+      </c>
+      <c r="G7" s="2">
+        <v>104</v>
+      </c>
+      <c r="H7" s="2">
+        <v>1</v>
+      </c>
+      <c r="I7" s="3">
+        <v>2300000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="2">
+        <v>105</v>
+      </c>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2">
+        <v>30105</v>
+      </c>
+      <c r="D8" s="2">
+        <v>30205</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F8" s="2">
+        <v>1</v>
+      </c>
+      <c r="G8" s="2">
+        <v>105</v>
+      </c>
+      <c r="H8" s="2">
+        <v>1</v>
+      </c>
+      <c r="I8" s="3">
+        <v>30000000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="2">
+        <v>106</v>
+      </c>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2">
+        <v>30106</v>
+      </c>
+      <c r="D9" s="2">
+        <v>30206</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F9" s="2">
+        <v>1</v>
+      </c>
+      <c r="G9" s="2">
+        <v>106</v>
+      </c>
+      <c r="H9" s="2">
+        <v>1</v>
+      </c>
+      <c r="I9" s="3">
+        <v>70000000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="2">
+        <v>107</v>
+      </c>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2">
+        <v>30107</v>
+      </c>
+      <c r="D10" s="2">
+        <v>30207</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F10" s="2">
+        <v>1</v>
+      </c>
+      <c r="G10" s="2">
+        <v>107</v>
+      </c>
+      <c r="H10" s="2">
+        <v>1</v>
+      </c>
+      <c r="I10" s="3">
+        <v>70000000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="2">
+        <v>108</v>
+      </c>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2">
+        <v>30108</v>
+      </c>
+      <c r="D11" s="2">
+        <v>30208</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F11" s="2">
+        <v>1</v>
+      </c>
+      <c r="G11" s="2">
+        <v>108</v>
+      </c>
+      <c r="H11" s="2">
+        <v>1</v>
+      </c>
+      <c r="I11" s="3">
+        <v>10000000000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="2">
+        <v>109</v>
+      </c>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2">
+        <v>30109</v>
+      </c>
+      <c r="D12" s="2">
+        <v>30209</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="2">
+        <v>1</v>
+      </c>
+      <c r="G12" s="2">
+        <v>109</v>
+      </c>
+      <c r="H12" s="2">
+        <v>1</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="2">
+        <v>110</v>
+      </c>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2">
+        <v>30110</v>
+      </c>
+      <c r="D13" s="2">
+        <v>30210</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F13" s="2">
+        <v>1</v>
+      </c>
+      <c r="G13" s="2">
+        <v>110</v>
+      </c>
+      <c r="H13" s="2">
+        <v>1</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="2">
+        <v>111</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" s="2">
+        <v>30111</v>
+      </c>
+      <c r="D14" s="2">
+        <v>30201</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G14" s="2">
+        <v>101</v>
+      </c>
+      <c r="H14" s="2">
+        <v>1</v>
+      </c>
+      <c r="I14" s="3">
+        <v>1550000000000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="2">
+        <v>112</v>
+      </c>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2">
+        <v>30112</v>
+      </c>
+      <c r="D15" s="2">
+        <v>30202</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G15" s="2">
+        <v>102</v>
+      </c>
+      <c r="H15" s="2">
+        <v>1</v>
+      </c>
+      <c r="I15" s="3">
+        <v>57400000000000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="2">
+        <v>113</v>
+      </c>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2">
+        <v>30113</v>
+      </c>
+      <c r="D16" s="2">
+        <v>30203</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G16" s="2">
+        <v>103</v>
+      </c>
+      <c r="H16" s="2">
+        <v>1</v>
+      </c>
+      <c r="I16" s="3">
+        <v>633000000000000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="2">
+        <v>114</v>
+      </c>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2">
+        <v>30114</v>
+      </c>
+      <c r="D17" s="2">
+        <v>30204</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G17" s="2">
+        <v>104</v>
+      </c>
+      <c r="H17" s="2">
+        <v>1</v>
+      </c>
+      <c r="I17" s="3">
+        <v>8130000000000000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" s="2">
+        <v>115</v>
+      </c>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2">
+        <v>30115</v>
+      </c>
+      <c r="D18" s="2">
+        <v>30205</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G18" s="2">
+        <v>105</v>
+      </c>
+      <c r="H18" s="2">
+        <v>1</v>
+      </c>
+      <c r="I18" s="3">
+        <v>1.04E+17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" s="2">
+        <v>116</v>
+      </c>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2">
+        <v>30116</v>
+      </c>
+      <c r="D19" s="2">
+        <v>30206</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G19" s="2">
+        <v>106</v>
+      </c>
+      <c r="H19" s="2">
+        <v>1</v>
+      </c>
+      <c r="I19" s="3">
+        <v>5.95E+17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" s="2">
+        <v>117</v>
+      </c>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2">
+        <v>30117</v>
+      </c>
+      <c r="D20" s="2">
+        <v>30207</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G20" s="2">
+        <v>107</v>
+      </c>
+      <c r="H20" s="2">
+        <v>1</v>
+      </c>
+      <c r="I20" s="3">
+        <v>7.14E+18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" s="2">
+        <v>118</v>
+      </c>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2">
+        <v>30118</v>
+      </c>
+      <c r="D21" s="2">
+        <v>30208</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G21" s="2">
+        <v>108</v>
+      </c>
+      <c r="H21" s="2">
+        <v>1</v>
+      </c>
+      <c r="I21" s="3">
+        <v>8.57E+19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" s="2">
+        <v>119</v>
+      </c>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2">
+        <v>30119</v>
+      </c>
+      <c r="D22" s="2">
+        <v>30209</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G22" s="2">
+        <v>109</v>
+      </c>
+      <c r="H22" s="2">
+        <v>1</v>
+      </c>
+      <c r="I22" s="3">
+        <v>1.02E+21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" s="2">
+        <v>120</v>
+      </c>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2">
+        <v>30120</v>
+      </c>
+      <c r="D23" s="2">
+        <v>30210</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G23" s="2">
+        <v>110</v>
+      </c>
+      <c r="H23" s="2">
+        <v>1</v>
+      </c>
+      <c r="I23" s="3">
+        <v>8.2099999999999995E+21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" s="2">
+        <v>121</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C24" s="2">
+        <v>30121</v>
+      </c>
+      <c r="D24" s="2">
+        <v>30201</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G24" s="2">
+        <v>101</v>
+      </c>
+      <c r="H24" s="2">
         <v>4</v>
       </c>
-      <c r="I6" s="2">
-        <v>2000</v>
+      <c r="I24" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" s="2">
+        <v>122</v>
+      </c>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2">
+        <v>30122</v>
+      </c>
+      <c r="D25" s="2">
+        <v>30202</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G25" s="2">
+        <v>102</v>
+      </c>
+      <c r="H25" s="2">
+        <v>4</v>
+      </c>
+      <c r="I25" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" s="2">
+        <v>123</v>
+      </c>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2">
+        <v>30123</v>
+      </c>
+      <c r="D26" s="2">
+        <v>30203</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G26" s="2">
+        <v>103</v>
+      </c>
+      <c r="H26" s="2">
+        <v>4</v>
+      </c>
+      <c r="I26" s="3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" s="2">
+        <v>124</v>
+      </c>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2">
+        <v>30124</v>
+      </c>
+      <c r="D27" s="2">
+        <v>30204</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G27" s="2">
+        <v>104</v>
+      </c>
+      <c r="H27" s="2">
+        <v>4</v>
+      </c>
+      <c r="I27" s="3">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28" s="2">
+        <v>125</v>
+      </c>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2">
+        <v>30125</v>
+      </c>
+      <c r="D28" s="2">
+        <v>30205</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G28" s="2">
+        <v>105</v>
+      </c>
+      <c r="H28" s="2">
+        <v>4</v>
+      </c>
+      <c r="I28" s="3">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29" s="2">
+        <v>126</v>
+      </c>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2">
+        <v>30126</v>
+      </c>
+      <c r="D29" s="2">
+        <v>30206</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G29" s="2">
+        <v>106</v>
+      </c>
+      <c r="H29" s="2">
+        <v>4</v>
+      </c>
+      <c r="I29" s="3">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30" s="2">
+        <v>127</v>
+      </c>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2">
+        <v>30127</v>
+      </c>
+      <c r="D30" s="2">
+        <v>30207</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G30" s="2">
+        <v>107</v>
+      </c>
+      <c r="H30" s="2">
+        <v>4</v>
+      </c>
+      <c r="I30" s="3">
+        <v>10000000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31" s="2">
+        <v>128</v>
+      </c>
+      <c r="B31" s="2"/>
+      <c r="C31" s="2">
+        <v>30128</v>
+      </c>
+      <c r="D31" s="2">
+        <v>30208</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G31" s="2">
+        <v>108</v>
+      </c>
+      <c r="H31" s="2">
+        <v>4</v>
+      </c>
+      <c r="I31" s="3">
+        <v>100000000</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32" s="2">
+        <v>129</v>
+      </c>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2">
+        <v>30129</v>
+      </c>
+      <c r="D32" s="2">
+        <v>30209</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G32" s="2">
+        <v>109</v>
+      </c>
+      <c r="H32" s="2">
+        <v>4</v>
+      </c>
+      <c r="I32" s="3">
+        <v>1000000000</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="A33" s="2">
+        <v>130</v>
+      </c>
+      <c r="B33" s="2"/>
+      <c r="C33" s="2">
+        <v>30130</v>
+      </c>
+      <c r="D33" s="2">
+        <v>30210</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G33" s="2">
+        <v>110</v>
+      </c>
+      <c r="H33" s="2">
+        <v>4</v>
+      </c>
+      <c r="I33" s="3">
+        <v>10000000000</v>
       </c>
     </row>
   </sheetData>

--- a/excel/manager.xlsx
+++ b/excel/manager.xlsx
@@ -146,10 +146,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>long</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>int[]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -199,12 +195,19 @@
   </si>
   <si>
     <t>540000000000</t>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
+  </numFmts>
   <fonts count="5">
     <font>
       <sz val="11"/>
@@ -284,12 +287,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -573,7 +581,7 @@
   <dimension ref="A1:I33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -585,7 +593,7 @@
     <col min="6" max="6" width="12" customWidth="1"/>
     <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="18.875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.5" customWidth="1"/>
+    <col min="9" max="9" width="28.125" style="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -613,7 +621,7 @@
       <c r="H1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="6" t="s">
         <v>16</v>
       </c>
     </row>
@@ -642,7 +650,7 @@
       <c r="H2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="I2" s="6" t="s">
         <v>14</v>
       </c>
     </row>
@@ -666,13 +674,13 @@
         <v>22</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="I3" s="1" t="s">
-        <v>23</v>
+      <c r="I3" s="6" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -680,7 +688,7 @@
         <v>101</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C4" s="2">
         <v>30101</v>
@@ -700,7 +708,7 @@
       <c r="H4" s="2">
         <v>1</v>
       </c>
-      <c r="I4" s="3">
+      <c r="I4" s="7">
         <v>1000</v>
       </c>
     </row>
@@ -727,7 +735,7 @@
       <c r="H5" s="2">
         <v>1</v>
       </c>
-      <c r="I5" s="3">
+      <c r="I5" s="7">
         <v>17000</v>
       </c>
     </row>
@@ -754,7 +762,7 @@
       <c r="H6" s="2">
         <v>1</v>
       </c>
-      <c r="I6" s="3">
+      <c r="I6" s="7">
         <v>90000</v>
       </c>
     </row>
@@ -770,7 +778,7 @@
         <v>30204</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F7" s="2">
         <v>1</v>
@@ -781,7 +789,7 @@
       <c r="H7" s="2">
         <v>1</v>
       </c>
-      <c r="I7" s="3">
+      <c r="I7" s="7">
         <v>2300000</v>
       </c>
     </row>
@@ -797,7 +805,7 @@
         <v>30205</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F8" s="2">
         <v>1</v>
@@ -808,7 +816,7 @@
       <c r="H8" s="2">
         <v>1</v>
       </c>
-      <c r="I8" s="3">
+      <c r="I8" s="7">
         <v>30000000</v>
       </c>
     </row>
@@ -824,7 +832,7 @@
         <v>30206</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F9" s="2">
         <v>1</v>
@@ -835,7 +843,7 @@
       <c r="H9" s="2">
         <v>1</v>
       </c>
-      <c r="I9" s="3">
+      <c r="I9" s="7">
         <v>70000000</v>
       </c>
     </row>
@@ -851,7 +859,7 @@
         <v>30207</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F10" s="2">
         <v>1</v>
@@ -862,7 +870,7 @@
       <c r="H10" s="2">
         <v>1</v>
       </c>
-      <c r="I10" s="3">
+      <c r="I10" s="7">
         <v>70000000</v>
       </c>
     </row>
@@ -878,7 +886,7 @@
         <v>30208</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F11" s="2">
         <v>1</v>
@@ -889,7 +897,7 @@
       <c r="H11" s="2">
         <v>1</v>
       </c>
-      <c r="I11" s="3">
+      <c r="I11" s="7">
         <v>10000000000</v>
       </c>
     </row>
@@ -905,7 +913,7 @@
         <v>30209</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F12" s="2">
         <v>1</v>
@@ -916,8 +924,8 @@
       <c r="H12" s="2">
         <v>1</v>
       </c>
-      <c r="I12" s="3" t="s">
-        <v>37</v>
+      <c r="I12" s="7" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -932,7 +940,7 @@
         <v>30210</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F13" s="2">
         <v>1</v>
@@ -943,8 +951,8 @@
       <c r="H13" s="2">
         <v>1</v>
       </c>
-      <c r="I13" s="3" t="s">
-        <v>38</v>
+      <c r="I13" s="7" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -952,7 +960,7 @@
         <v>111</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C14" s="2">
         <v>30111</v>
@@ -964,7 +972,7 @@
         <v>19</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G14" s="2">
         <v>101</v>
@@ -972,7 +980,7 @@
       <c r="H14" s="2">
         <v>1</v>
       </c>
-      <c r="I14" s="3">
+      <c r="I14" s="7">
         <v>1550000000000</v>
       </c>
     </row>
@@ -991,7 +999,7 @@
         <v>20</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G15" s="2">
         <v>102</v>
@@ -999,7 +1007,7 @@
       <c r="H15" s="2">
         <v>1</v>
       </c>
-      <c r="I15" s="3">
+      <c r="I15" s="7">
         <v>57400000000000</v>
       </c>
     </row>
@@ -1018,7 +1026,7 @@
         <v>21</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G16" s="2">
         <v>103</v>
@@ -1026,7 +1034,7 @@
       <c r="H16" s="2">
         <v>1</v>
       </c>
-      <c r="I16" s="3">
+      <c r="I16" s="7">
         <v>633000000000000</v>
       </c>
     </row>
@@ -1042,10 +1050,10 @@
         <v>30204</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G17" s="2">
         <v>104</v>
@@ -1053,7 +1061,7 @@
       <c r="H17" s="2">
         <v>1</v>
       </c>
-      <c r="I17" s="3">
+      <c r="I17" s="7">
         <v>8130000000000000</v>
       </c>
     </row>
@@ -1069,10 +1077,10 @@
         <v>30205</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G18" s="2">
         <v>105</v>
@@ -1080,7 +1088,7 @@
       <c r="H18" s="2">
         <v>1</v>
       </c>
-      <c r="I18" s="3">
+      <c r="I18" s="7">
         <v>1.04E+17</v>
       </c>
     </row>
@@ -1096,10 +1104,10 @@
         <v>30206</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G19" s="2">
         <v>106</v>
@@ -1107,7 +1115,7 @@
       <c r="H19" s="2">
         <v>1</v>
       </c>
-      <c r="I19" s="3">
+      <c r="I19" s="7">
         <v>5.95E+17</v>
       </c>
     </row>
@@ -1123,10 +1131,10 @@
         <v>30207</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G20" s="2">
         <v>107</v>
@@ -1134,7 +1142,7 @@
       <c r="H20" s="2">
         <v>1</v>
       </c>
-      <c r="I20" s="3">
+      <c r="I20" s="7">
         <v>7.14E+18</v>
       </c>
     </row>
@@ -1150,10 +1158,10 @@
         <v>30208</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G21" s="2">
         <v>108</v>
@@ -1161,7 +1169,7 @@
       <c r="H21" s="2">
         <v>1</v>
       </c>
-      <c r="I21" s="3">
+      <c r="I21" s="7">
         <v>8.57E+19</v>
       </c>
     </row>
@@ -1177,10 +1185,10 @@
         <v>30209</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G22" s="2">
         <v>109</v>
@@ -1188,7 +1196,7 @@
       <c r="H22" s="2">
         <v>1</v>
       </c>
-      <c r="I22" s="3">
+      <c r="I22" s="7">
         <v>1.02E+21</v>
       </c>
     </row>
@@ -1204,10 +1212,10 @@
         <v>30210</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G23" s="2">
         <v>110</v>
@@ -1215,7 +1223,7 @@
       <c r="H23" s="2">
         <v>1</v>
       </c>
-      <c r="I23" s="3">
+      <c r="I23" s="7">
         <v>8.2099999999999995E+21</v>
       </c>
     </row>
@@ -1224,7 +1232,7 @@
         <v>121</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C24" s="2">
         <v>30121</v>
@@ -1236,7 +1244,7 @@
         <v>19</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G24" s="2">
         <v>101</v>
@@ -1244,7 +1252,7 @@
       <c r="H24" s="2">
         <v>4</v>
       </c>
-      <c r="I24" s="3">
+      <c r="I24" s="7">
         <v>10</v>
       </c>
     </row>
@@ -1263,7 +1271,7 @@
         <v>20</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G25" s="2">
         <v>102</v>
@@ -1271,7 +1279,7 @@
       <c r="H25" s="2">
         <v>4</v>
       </c>
-      <c r="I25" s="3">
+      <c r="I25" s="7">
         <v>100</v>
       </c>
     </row>
@@ -1290,7 +1298,7 @@
         <v>21</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G26" s="2">
         <v>103</v>
@@ -1298,7 +1306,7 @@
       <c r="H26" s="2">
         <v>4</v>
       </c>
-      <c r="I26" s="3">
+      <c r="I26" s="7">
         <v>1000</v>
       </c>
     </row>
@@ -1314,10 +1322,10 @@
         <v>30204</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G27" s="2">
         <v>104</v>
@@ -1325,7 +1333,7 @@
       <c r="H27" s="2">
         <v>4</v>
       </c>
-      <c r="I27" s="3">
+      <c r="I27" s="7">
         <v>10000</v>
       </c>
     </row>
@@ -1341,10 +1349,10 @@
         <v>30205</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G28" s="2">
         <v>105</v>
@@ -1352,7 +1360,7 @@
       <c r="H28" s="2">
         <v>4</v>
       </c>
-      <c r="I28" s="3">
+      <c r="I28" s="7">
         <v>100000</v>
       </c>
     </row>
@@ -1368,10 +1376,10 @@
         <v>30206</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G29" s="2">
         <v>106</v>
@@ -1379,7 +1387,7 @@
       <c r="H29" s="2">
         <v>4</v>
       </c>
-      <c r="I29" s="3">
+      <c r="I29" s="7">
         <v>1000000</v>
       </c>
     </row>
@@ -1395,10 +1403,10 @@
         <v>30207</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G30" s="2">
         <v>107</v>
@@ -1406,7 +1414,7 @@
       <c r="H30" s="2">
         <v>4</v>
       </c>
-      <c r="I30" s="3">
+      <c r="I30" s="7">
         <v>10000000</v>
       </c>
     </row>
@@ -1422,10 +1430,10 @@
         <v>30208</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G31" s="2">
         <v>108</v>
@@ -1433,7 +1441,7 @@
       <c r="H31" s="2">
         <v>4</v>
       </c>
-      <c r="I31" s="3">
+      <c r="I31" s="7">
         <v>100000000</v>
       </c>
     </row>
@@ -1449,10 +1457,10 @@
         <v>30209</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G32" s="2">
         <v>109</v>
@@ -1460,7 +1468,7 @@
       <c r="H32" s="2">
         <v>4</v>
       </c>
-      <c r="I32" s="3">
+      <c r="I32" s="7">
         <v>1000000000</v>
       </c>
     </row>
@@ -1476,10 +1484,10 @@
         <v>30210</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G33" s="2">
         <v>110</v>
@@ -1487,7 +1495,7 @@
       <c r="H33" s="2">
         <v>4</v>
       </c>
-      <c r="I33" s="3">
+      <c r="I33" s="7">
         <v>10000000000</v>
       </c>
     </row>

--- a/excel/manager.xlsx
+++ b/excel/manager.xlsx
@@ -132,16 +132,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>jili_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>jili_2</t>
-  </si>
-  <si>
-    <t>jili_3</t>
-  </si>
-  <si>
     <t>int[]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -150,27 +140,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>jili_4</t>
-  </si>
-  <si>
-    <t>jili_5</t>
-  </si>
-  <si>
-    <t>jili_6</t>
-  </si>
-  <si>
-    <t>jili_7</t>
-  </si>
-  <si>
-    <t>jili_8</t>
-  </si>
-  <si>
-    <t>jili_9</t>
-  </si>
-  <si>
-    <t>jili_10</t>
-  </si>
-  <si>
     <t>自动经理</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -199,6 +168,37 @@
   <si>
     <t>string</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jingli_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jingli_2</t>
+  </si>
+  <si>
+    <t>jingli_3</t>
+  </si>
+  <si>
+    <t>jingli_4</t>
+  </si>
+  <si>
+    <t>jingli_5</t>
+  </si>
+  <si>
+    <t>jingli_6</t>
+  </si>
+  <si>
+    <t>jingli_7</t>
+  </si>
+  <si>
+    <t>jingli_8</t>
+  </si>
+  <si>
+    <t>jingli_9</t>
+  </si>
+  <si>
+    <t>jingli_10</t>
   </si>
 </sst>
 </file>
@@ -581,7 +581,7 @@
   <dimension ref="A1:I33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -671,16 +671,16 @@
         <v>11</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>10</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -688,7 +688,7 @@
         <v>101</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="C4" s="2">
         <v>30101</v>
@@ -697,7 +697,7 @@
         <v>30201</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="F4" s="2">
         <v>1</v>
@@ -724,7 +724,7 @@
         <v>30202</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F5" s="2">
         <v>1</v>
@@ -751,7 +751,7 @@
         <v>30203</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="F6" s="2">
         <v>1</v>
@@ -778,7 +778,7 @@
         <v>30204</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="F7" s="2">
         <v>1</v>
@@ -805,7 +805,7 @@
         <v>30205</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="F8" s="2">
         <v>1</v>
@@ -832,7 +832,7 @@
         <v>30206</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="F9" s="2">
         <v>1</v>
@@ -859,7 +859,7 @@
         <v>30207</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="F10" s="2">
         <v>1</v>
@@ -886,7 +886,7 @@
         <v>30208</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="F11" s="2">
         <v>1</v>
@@ -913,7 +913,7 @@
         <v>30209</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="F12" s="2">
         <v>1</v>
@@ -925,7 +925,7 @@
         <v>1</v>
       </c>
       <c r="I12" s="7" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -940,7 +940,7 @@
         <v>30210</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="F13" s="2">
         <v>1</v>
@@ -952,7 +952,7 @@
         <v>1</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -960,7 +960,7 @@
         <v>111</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="C14" s="2">
         <v>30111</v>
@@ -969,10 +969,10 @@
         <v>30201</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="G14" s="2">
         <v>101</v>
@@ -996,10 +996,10 @@
         <v>30202</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="G15" s="2">
         <v>102</v>
@@ -1023,10 +1023,10 @@
         <v>30203</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="G16" s="2">
         <v>103</v>
@@ -1050,10 +1050,10 @@
         <v>30204</v>
       </c>
       <c r="E17" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F17" s="3" t="s">
         <v>24</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>34</v>
       </c>
       <c r="G17" s="2">
         <v>104</v>
@@ -1077,10 +1077,10 @@
         <v>30205</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="G18" s="2">
         <v>105</v>
@@ -1104,10 +1104,10 @@
         <v>30206</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="G19" s="2">
         <v>106</v>
@@ -1131,10 +1131,10 @@
         <v>30207</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="G20" s="2">
         <v>107</v>
@@ -1158,10 +1158,10 @@
         <v>30208</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="G21" s="2">
         <v>108</v>
@@ -1185,10 +1185,10 @@
         <v>30209</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="G22" s="2">
         <v>109</v>
@@ -1212,10 +1212,10 @@
         <v>30210</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="G23" s="2">
         <v>110</v>
@@ -1232,7 +1232,7 @@
         <v>121</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="C24" s="2">
         <v>30121</v>
@@ -1241,10 +1241,10 @@
         <v>30201</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="G24" s="2">
         <v>101</v>
@@ -1268,10 +1268,10 @@
         <v>30202</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="G25" s="2">
         <v>102</v>
@@ -1295,10 +1295,10 @@
         <v>30203</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="G26" s="2">
         <v>103</v>
@@ -1322,10 +1322,10 @@
         <v>30204</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="G27" s="2">
         <v>104</v>
@@ -1349,10 +1349,10 @@
         <v>30205</v>
       </c>
       <c r="E28" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F28" s="3" t="s">
         <v>25</v>
-      </c>
-      <c r="F28" s="3" t="s">
-        <v>35</v>
       </c>
       <c r="G28" s="2">
         <v>105</v>
@@ -1376,10 +1376,10 @@
         <v>30206</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="G29" s="2">
         <v>106</v>
@@ -1403,10 +1403,10 @@
         <v>30207</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="G30" s="2">
         <v>107</v>
@@ -1430,10 +1430,10 @@
         <v>30208</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="G31" s="2">
         <v>108</v>
@@ -1457,10 +1457,10 @@
         <v>30209</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="G32" s="2">
         <v>109</v>
@@ -1484,10 +1484,10 @@
         <v>30210</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="G33" s="2">
         <v>110</v>

--- a/excel/manager.xlsx
+++ b/excel/manager.xlsx
@@ -170,35 +170,34 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>jingli_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>jingli_2</t>
-  </si>
-  <si>
-    <t>jingli_3</t>
-  </si>
-  <si>
-    <t>jingli_4</t>
-  </si>
-  <si>
-    <t>jingli_5</t>
-  </si>
-  <si>
-    <t>jingli_6</t>
-  </si>
-  <si>
-    <t>jingli_7</t>
-  </si>
-  <si>
-    <t>jingli_8</t>
-  </si>
-  <si>
-    <t>jingli_9</t>
-  </si>
-  <si>
-    <t>jingli_10</t>
+    <t>jingli1</t>
+  </si>
+  <si>
+    <t>jingli2</t>
+  </si>
+  <si>
+    <t>jingli3</t>
+  </si>
+  <si>
+    <t>jingli4</t>
+  </si>
+  <si>
+    <t>jingli5</t>
+  </si>
+  <si>
+    <t>jingli6</t>
+  </si>
+  <si>
+    <t>jingli7</t>
+  </si>
+  <si>
+    <t>jingli8</t>
+  </si>
+  <si>
+    <t>jingli9</t>
+  </si>
+  <si>
+    <t>jingli10</t>
   </si>
 </sst>
 </file>
@@ -581,7 +580,7 @@
   <dimension ref="A1:I33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="I14" sqref="I13:I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>

--- a/excel/manager.xlsx
+++ b/excel/manager.xlsx
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="49">
   <si>
     <t>resource</t>
   </si>
@@ -198,6 +198,46 @@
   </si>
   <si>
     <t>jingli10</t>
+  </si>
+  <si>
+    <t>1550000000000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>57400000000000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>633000000000000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8130000000000000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>104000000000000000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>595000000000000000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7140000000000000000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>85700000000000000000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1020000000000000000000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8210000000000000000000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -294,7 +334,7 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -580,7 +620,7 @@
   <dimension ref="A1:I33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I13:I14"/>
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -592,7 +632,7 @@
     <col min="6" max="6" width="12" customWidth="1"/>
     <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="18.875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="28.125" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="40.25" style="5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -979,8 +1019,8 @@
       <c r="H14" s="2">
         <v>1</v>
       </c>
-      <c r="I14" s="7">
-        <v>1550000000000</v>
+      <c r="I14" s="7" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -1006,8 +1046,8 @@
       <c r="H15" s="2">
         <v>1</v>
       </c>
-      <c r="I15" s="7">
-        <v>57400000000000</v>
+      <c r="I15" s="7" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -1033,8 +1073,8 @@
       <c r="H16" s="2">
         <v>1</v>
       </c>
-      <c r="I16" s="7">
-        <v>633000000000000</v>
+      <c r="I16" s="7" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -1060,8 +1100,8 @@
       <c r="H17" s="2">
         <v>1</v>
       </c>
-      <c r="I17" s="7">
-        <v>8130000000000000</v>
+      <c r="I17" s="7" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -1087,8 +1127,8 @@
       <c r="H18" s="2">
         <v>1</v>
       </c>
-      <c r="I18" s="7">
-        <v>1.04E+17</v>
+      <c r="I18" s="7" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -1114,8 +1154,8 @@
       <c r="H19" s="2">
         <v>1</v>
       </c>
-      <c r="I19" s="7">
-        <v>5.95E+17</v>
+      <c r="I19" s="7" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -1141,8 +1181,8 @@
       <c r="H20" s="2">
         <v>1</v>
       </c>
-      <c r="I20" s="7">
-        <v>7.14E+18</v>
+      <c r="I20" s="7" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -1168,8 +1208,8 @@
       <c r="H21" s="2">
         <v>1</v>
       </c>
-      <c r="I21" s="7">
-        <v>8.57E+19</v>
+      <c r="I21" s="7" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -1195,8 +1235,8 @@
       <c r="H22" s="2">
         <v>1</v>
       </c>
-      <c r="I22" s="7">
-        <v>1.02E+21</v>
+      <c r="I22" s="7" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1222,8 +1262,8 @@
       <c r="H23" s="2">
         <v>1</v>
       </c>
-      <c r="I23" s="7">
-        <v>8.2099999999999995E+21</v>
+      <c r="I23" s="7" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="24" spans="1:9">

--- a/excel/manager.xlsx
+++ b/excel/manager.xlsx
@@ -18,45 +18,8 @@
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>作者</author>
-  </authors>
-  <commentList>
-    <comment ref="F1" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>作者:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-1.矿产自动生产（参数：类型id，无）
-2.矿产升级便宜万分比（参数：类型id，参数）</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="44">
   <si>
     <t>resource</t>
   </si>
@@ -104,139 +67,119 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>effect</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mines</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>expendquantity</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>消耗数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消耗类型（道具id）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自动经理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>减费经理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水晶减费经理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>110000000000</t>
+  </si>
+  <si>
+    <t>540000000000</t>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jingli1</t>
+  </si>
+  <si>
+    <t>jingli2</t>
+  </si>
+  <si>
+    <t>jingli3</t>
+  </si>
+  <si>
+    <t>jingli4</t>
+  </si>
+  <si>
+    <t>jingli5</t>
+  </si>
+  <si>
+    <t>jingli6</t>
+  </si>
+  <si>
+    <t>jingli7</t>
+  </si>
+  <si>
+    <t>jingli8</t>
+  </si>
+  <si>
+    <t>jingli9</t>
+  </si>
+  <si>
+    <t>jingli10</t>
+  </si>
+  <si>
+    <t>1550000000000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>57400000000000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>633000000000000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8130000000000000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>104000000000000000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>595000000000000000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7140000000000000000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>85700000000000000000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1020000000000000000000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8210000000000000000000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>效果</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>消耗数量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>消耗类型（道具id）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>生效矿产组（-1为全部）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int[]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int[]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>自动经理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>减费经理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>水晶减费经理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2,9990</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2,1000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>110000000000</t>
-  </si>
-  <si>
-    <t>540000000000</t>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>jingli1</t>
-  </si>
-  <si>
-    <t>jingli2</t>
-  </si>
-  <si>
-    <t>jingli3</t>
-  </si>
-  <si>
-    <t>jingli4</t>
-  </si>
-  <si>
-    <t>jingli5</t>
-  </si>
-  <si>
-    <t>jingli6</t>
-  </si>
-  <si>
-    <t>jingli7</t>
-  </si>
-  <si>
-    <t>jingli8</t>
-  </si>
-  <si>
-    <t>jingli9</t>
-  </si>
-  <si>
-    <t>jingli10</t>
-  </si>
-  <si>
-    <t>1550000000000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>57400000000000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>633000000000000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8130000000000000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>104000000000000000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>595000000000000000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>7140000000000000000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>85700000000000000000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1020000000000000000000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8210000000000000000000</t>
+    <t>effectid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -247,7 +190,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -257,28 +200,6 @@
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
@@ -326,12 +247,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -616,26 +535,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I33"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.75" customWidth="1"/>
     <col min="4" max="4" width="12.25" customWidth="1"/>
     <col min="5" max="5" width="10.625" customWidth="1"/>
     <col min="6" max="6" width="12" customWidth="1"/>
-    <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="40.25" style="5" customWidth="1"/>
+    <col min="7" max="7" width="18.875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="40.25" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -652,19 +570,16 @@
         <v>9</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I1" s="6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
+        <v>14</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -681,19 +596,16 @@
         <v>0</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="I2" s="6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
@@ -709,25 +621,22 @@
       <c r="E3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="4" t="s">
-        <v>19</v>
+      <c r="F3" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="G3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I3" s="6" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>101</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="C4" s="2">
         <v>30101</v>
@@ -736,22 +645,19 @@
         <v>30201</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="F4" s="2">
-        <v>1</v>
+        <v>20101</v>
       </c>
       <c r="G4" s="2">
-        <v>101</v>
-      </c>
-      <c r="H4" s="2">
-        <v>1</v>
-      </c>
-      <c r="I4" s="7">
+        <v>1</v>
+      </c>
+      <c r="H4" s="5">
         <v>1000</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>102</v>
       </c>
@@ -763,22 +669,19 @@
         <v>30202</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="F5" s="2">
-        <v>1</v>
+        <v>20102</v>
       </c>
       <c r="G5" s="2">
-        <v>102</v>
-      </c>
-      <c r="H5" s="2">
-        <v>1</v>
-      </c>
-      <c r="I5" s="7">
+        <v>1</v>
+      </c>
+      <c r="H5" s="5">
         <v>17000</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>103</v>
       </c>
@@ -790,22 +693,19 @@
         <v>30203</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="F6" s="2">
-        <v>1</v>
+        <v>20103</v>
       </c>
       <c r="G6" s="2">
-        <v>103</v>
-      </c>
-      <c r="H6" s="2">
-        <v>1</v>
-      </c>
-      <c r="I6" s="7">
+        <v>1</v>
+      </c>
+      <c r="H6" s="5">
         <v>90000</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>104</v>
       </c>
@@ -817,22 +717,19 @@
         <v>30204</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="F7" s="2">
-        <v>1</v>
+        <v>20104</v>
       </c>
       <c r="G7" s="2">
-        <v>104</v>
-      </c>
-      <c r="H7" s="2">
-        <v>1</v>
-      </c>
-      <c r="I7" s="7">
+        <v>1</v>
+      </c>
+      <c r="H7" s="5">
         <v>2300000</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>105</v>
       </c>
@@ -844,22 +741,19 @@
         <v>30205</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="F8" s="2">
-        <v>1</v>
+        <v>20105</v>
       </c>
       <c r="G8" s="2">
-        <v>105</v>
-      </c>
-      <c r="H8" s="2">
-        <v>1</v>
-      </c>
-      <c r="I8" s="7">
+        <v>1</v>
+      </c>
+      <c r="H8" s="5">
         <v>30000000</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>106</v>
       </c>
@@ -871,22 +765,19 @@
         <v>30206</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="F9" s="2">
-        <v>1</v>
+        <v>20106</v>
       </c>
       <c r="G9" s="2">
-        <v>106</v>
-      </c>
-      <c r="H9" s="2">
-        <v>1</v>
-      </c>
-      <c r="I9" s="7">
+        <v>1</v>
+      </c>
+      <c r="H9" s="5">
         <v>70000000</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>107</v>
       </c>
@@ -898,22 +789,19 @@
         <v>30207</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="F10" s="2">
-        <v>1</v>
+        <v>20107</v>
       </c>
       <c r="G10" s="2">
-        <v>107</v>
-      </c>
-      <c r="H10" s="2">
-        <v>1</v>
-      </c>
-      <c r="I10" s="7">
+        <v>1</v>
+      </c>
+      <c r="H10" s="5">
         <v>70000000</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>108</v>
       </c>
@@ -925,22 +813,19 @@
         <v>30208</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="F11" s="2">
-        <v>1</v>
+        <v>20108</v>
       </c>
       <c r="G11" s="2">
-        <v>108</v>
-      </c>
-      <c r="H11" s="2">
-        <v>1</v>
-      </c>
-      <c r="I11" s="7">
+        <v>1</v>
+      </c>
+      <c r="H11" s="5">
         <v>10000000000</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>109</v>
       </c>
@@ -952,22 +837,19 @@
         <v>30209</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="F12" s="2">
-        <v>1</v>
+        <v>20109</v>
       </c>
       <c r="G12" s="2">
-        <v>109</v>
-      </c>
-      <c r="H12" s="2">
-        <v>1</v>
-      </c>
-      <c r="I12" s="7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
+        <v>1</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>110</v>
       </c>
@@ -979,27 +861,24 @@
         <v>30210</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="F13" s="2">
-        <v>1</v>
+        <v>20110</v>
       </c>
       <c r="G13" s="2">
-        <v>110</v>
-      </c>
-      <c r="H13" s="2">
-        <v>1</v>
-      </c>
-      <c r="I13" s="7" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
+        <v>1</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>111</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C14" s="2">
         <v>30111</v>
@@ -1008,22 +887,19 @@
         <v>30201</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>24</v>
+        <v>21</v>
+      </c>
+      <c r="F14" s="2">
+        <v>20111</v>
       </c>
       <c r="G14" s="2">
-        <v>101</v>
-      </c>
-      <c r="H14" s="2">
-        <v>1</v>
-      </c>
-      <c r="I14" s="7" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+        <v>1</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>112</v>
       </c>
@@ -1035,22 +911,19 @@
         <v>30202</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
+      </c>
+      <c r="F15" s="2">
+        <v>20112</v>
       </c>
       <c r="G15" s="2">
-        <v>102</v>
-      </c>
-      <c r="H15" s="2">
-        <v>1</v>
-      </c>
-      <c r="I15" s="7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+        <v>1</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>113</v>
       </c>
@@ -1062,22 +935,19 @@
         <v>30203</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
+      </c>
+      <c r="F16" s="2">
+        <v>20113</v>
       </c>
       <c r="G16" s="2">
-        <v>103</v>
-      </c>
-      <c r="H16" s="2">
-        <v>1</v>
-      </c>
-      <c r="I16" s="7" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
+        <v>1</v>
+      </c>
+      <c r="H16" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>114</v>
       </c>
@@ -1089,22 +959,19 @@
         <v>30204</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F17" s="3" t="s">
         <v>24</v>
       </c>
+      <c r="F17" s="2">
+        <v>20114</v>
+      </c>
       <c r="G17" s="2">
-        <v>104</v>
-      </c>
-      <c r="H17" s="2">
-        <v>1</v>
-      </c>
-      <c r="I17" s="7" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
+        <v>1</v>
+      </c>
+      <c r="H17" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>115</v>
       </c>
@@ -1116,22 +983,19 @@
         <v>30205</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
+      </c>
+      <c r="F18" s="2">
+        <v>20115</v>
       </c>
       <c r="G18" s="2">
-        <v>105</v>
-      </c>
-      <c r="H18" s="2">
-        <v>1</v>
-      </c>
-      <c r="I18" s="7" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
+        <v>1</v>
+      </c>
+      <c r="H18" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>116</v>
       </c>
@@ -1143,22 +1007,19 @@
         <v>30206</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>24</v>
+        <v>26</v>
+      </c>
+      <c r="F19" s="2">
+        <v>20116</v>
       </c>
       <c r="G19" s="2">
-        <v>106</v>
-      </c>
-      <c r="H19" s="2">
-        <v>1</v>
-      </c>
-      <c r="I19" s="7" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
+        <v>1</v>
+      </c>
+      <c r="H19" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <v>117</v>
       </c>
@@ -1170,22 +1031,19 @@
         <v>30207</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>24</v>
+        <v>27</v>
+      </c>
+      <c r="F20" s="2">
+        <v>20117</v>
       </c>
       <c r="G20" s="2">
-        <v>107</v>
-      </c>
-      <c r="H20" s="2">
-        <v>1</v>
-      </c>
-      <c r="I20" s="7" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
+        <v>1</v>
+      </c>
+      <c r="H20" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>118</v>
       </c>
@@ -1197,22 +1055,19 @@
         <v>30208</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>24</v>
+        <v>28</v>
+      </c>
+      <c r="F21" s="2">
+        <v>20118</v>
       </c>
       <c r="G21" s="2">
-        <v>108</v>
-      </c>
-      <c r="H21" s="2">
-        <v>1</v>
-      </c>
-      <c r="I21" s="7" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
+        <v>1</v>
+      </c>
+      <c r="H21" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <v>119</v>
       </c>
@@ -1224,22 +1079,19 @@
         <v>30209</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>24</v>
+        <v>29</v>
+      </c>
+      <c r="F22" s="2">
+        <v>20119</v>
       </c>
       <c r="G22" s="2">
-        <v>109</v>
-      </c>
-      <c r="H22" s="2">
-        <v>1</v>
-      </c>
-      <c r="I22" s="7" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
+        <v>1</v>
+      </c>
+      <c r="H22" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
         <v>120</v>
       </c>
@@ -1251,27 +1103,24 @@
         <v>30210</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>24</v>
+        <v>30</v>
+      </c>
+      <c r="F23" s="2">
+        <v>20120</v>
       </c>
       <c r="G23" s="2">
-        <v>110</v>
-      </c>
-      <c r="H23" s="2">
-        <v>1</v>
-      </c>
-      <c r="I23" s="7" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
+        <v>1</v>
+      </c>
+      <c r="H23" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
         <v>121</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C24" s="2">
         <v>30121</v>
@@ -1280,22 +1129,19 @@
         <v>30201</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>25</v>
+        <v>21</v>
+      </c>
+      <c r="F24" s="2">
+        <v>20121</v>
       </c>
       <c r="G24" s="2">
-        <v>101</v>
-      </c>
-      <c r="H24" s="2">
         <v>4</v>
       </c>
-      <c r="I24" s="7">
+      <c r="H24" s="5">
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
         <v>122</v>
       </c>
@@ -1307,22 +1153,19 @@
         <v>30202</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F25" s="3" t="s">
-        <v>25</v>
+        <v>22</v>
+      </c>
+      <c r="F25" s="2">
+        <v>20122</v>
       </c>
       <c r="G25" s="2">
-        <v>102</v>
-      </c>
-      <c r="H25" s="2">
         <v>4</v>
       </c>
-      <c r="I25" s="7">
+      <c r="H25" s="5">
         <v>100</v>
       </c>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
         <v>123</v>
       </c>
@@ -1334,22 +1177,19 @@
         <v>30203</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
+      </c>
+      <c r="F26" s="2">
+        <v>20123</v>
       </c>
       <c r="G26" s="2">
-        <v>103</v>
-      </c>
-      <c r="H26" s="2">
         <v>4</v>
       </c>
-      <c r="I26" s="7">
+      <c r="H26" s="5">
         <v>1000</v>
       </c>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
         <v>124</v>
       </c>
@@ -1361,22 +1201,19 @@
         <v>30204</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F27" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
+      </c>
+      <c r="F27" s="2">
+        <v>20124</v>
       </c>
       <c r="G27" s="2">
-        <v>104</v>
-      </c>
-      <c r="H27" s="2">
         <v>4</v>
       </c>
-      <c r="I27" s="7">
+      <c r="H27" s="5">
         <v>10000</v>
       </c>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
         <v>125</v>
       </c>
@@ -1388,22 +1225,19 @@
         <v>30205</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F28" s="3" t="s">
         <v>25</v>
       </c>
+      <c r="F28" s="2">
+        <v>20125</v>
+      </c>
       <c r="G28" s="2">
-        <v>105</v>
-      </c>
-      <c r="H28" s="2">
         <v>4</v>
       </c>
-      <c r="I28" s="7">
+      <c r="H28" s="5">
         <v>100000</v>
       </c>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" s="2">
         <v>126</v>
       </c>
@@ -1415,22 +1249,19 @@
         <v>30206</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
+      </c>
+      <c r="F29" s="2">
+        <v>20126</v>
       </c>
       <c r="G29" s="2">
-        <v>106</v>
-      </c>
-      <c r="H29" s="2">
         <v>4</v>
       </c>
-      <c r="I29" s="7">
+      <c r="H29" s="5">
         <v>1000000</v>
       </c>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
         <v>127</v>
       </c>
@@ -1442,22 +1273,19 @@
         <v>30207</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="F30" s="3" t="s">
-        <v>25</v>
+        <v>27</v>
+      </c>
+      <c r="F30" s="2">
+        <v>20127</v>
       </c>
       <c r="G30" s="2">
-        <v>107</v>
-      </c>
-      <c r="H30" s="2">
         <v>4</v>
       </c>
-      <c r="I30" s="7">
+      <c r="H30" s="5">
         <v>10000000</v>
       </c>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" s="2">
         <v>128</v>
       </c>
@@ -1469,22 +1297,19 @@
         <v>30208</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="F31" s="3" t="s">
-        <v>25</v>
+        <v>28</v>
+      </c>
+      <c r="F31" s="2">
+        <v>20128</v>
       </c>
       <c r="G31" s="2">
-        <v>108</v>
-      </c>
-      <c r="H31" s="2">
         <v>4</v>
       </c>
-      <c r="I31" s="7">
+      <c r="H31" s="5">
         <v>100000000</v>
       </c>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" s="2">
         <v>129</v>
       </c>
@@ -1496,22 +1321,19 @@
         <v>30209</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="F32" s="3" t="s">
-        <v>25</v>
+        <v>29</v>
+      </c>
+      <c r="F32" s="2">
+        <v>20129</v>
       </c>
       <c r="G32" s="2">
-        <v>109</v>
-      </c>
-      <c r="H32" s="2">
         <v>4</v>
       </c>
-      <c r="I32" s="7">
+      <c r="H32" s="5">
         <v>1000000000</v>
       </c>
     </row>
-    <row r="33" spans="1:9">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" s="2">
         <v>130</v>
       </c>
@@ -1523,18 +1345,15 @@
         <v>30210</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F33" s="3" t="s">
-        <v>25</v>
+        <v>30</v>
+      </c>
+      <c r="F33" s="2">
+        <v>20130</v>
       </c>
       <c r="G33" s="2">
-        <v>110</v>
-      </c>
-      <c r="H33" s="2">
         <v>4</v>
       </c>
-      <c r="I33" s="7">
+      <c r="H33" s="5">
         <v>10000000000</v>
       </c>
     </row>
@@ -1542,6 +1361,5 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/excel/manager.xlsx
+++ b/excel/manager.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="47">
   <si>
     <t>resource</t>
   </si>
@@ -180,6 +180,18 @@
   </si>
   <si>
     <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生效矿产组（-1为全部，0为无）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mines</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int[]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -206,7 +218,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -216,6 +228,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -247,7 +265,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -256,6 +274,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -536,10 +555,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H33"/>
+  <dimension ref="A1:I33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -553,7 +572,7 @@
     <col min="8" max="8" width="40.25" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -578,8 +597,11 @@
       <c r="H1" s="4" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I1" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -604,8 +626,11 @@
       <c r="H2" s="4" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I2" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
@@ -630,8 +655,11 @@
       <c r="H3" s="4" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I3" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>101</v>
       </c>
@@ -647,7 +675,7 @@
       <c r="E4" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F4" s="6">
         <v>20101</v>
       </c>
       <c r="G4" s="2">
@@ -656,8 +684,11 @@
       <c r="H4" s="5">
         <v>1000</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I4" s="6">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>102</v>
       </c>
@@ -671,8 +702,8 @@
       <c r="E5" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F5" s="2">
-        <v>20102</v>
+      <c r="F5" s="6">
+        <v>20101</v>
       </c>
       <c r="G5" s="2">
         <v>1</v>
@@ -680,8 +711,11 @@
       <c r="H5" s="5">
         <v>17000</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I5" s="6">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>103</v>
       </c>
@@ -695,8 +729,8 @@
       <c r="E6" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="F6" s="2">
-        <v>20103</v>
+      <c r="F6" s="6">
+        <v>20101</v>
       </c>
       <c r="G6" s="2">
         <v>1</v>
@@ -704,8 +738,11 @@
       <c r="H6" s="5">
         <v>90000</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I6" s="6">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>104</v>
       </c>
@@ -719,8 +756,8 @@
       <c r="E7" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F7" s="2">
-        <v>20104</v>
+      <c r="F7" s="6">
+        <v>20101</v>
       </c>
       <c r="G7" s="2">
         <v>1</v>
@@ -728,8 +765,11 @@
       <c r="H7" s="5">
         <v>2300000</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I7" s="6">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>105</v>
       </c>
@@ -743,8 +783,8 @@
       <c r="E8" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="F8" s="2">
-        <v>20105</v>
+      <c r="F8" s="6">
+        <v>20101</v>
       </c>
       <c r="G8" s="2">
         <v>1</v>
@@ -752,8 +792,11 @@
       <c r="H8" s="5">
         <v>30000000</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I8" s="6">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>106</v>
       </c>
@@ -767,8 +810,8 @@
       <c r="E9" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="F9" s="2">
-        <v>20106</v>
+      <c r="F9" s="6">
+        <v>20101</v>
       </c>
       <c r="G9" s="2">
         <v>1</v>
@@ -776,8 +819,11 @@
       <c r="H9" s="5">
         <v>70000000</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I9" s="6">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>107</v>
       </c>
@@ -791,8 +837,8 @@
       <c r="E10" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="F10" s="2">
-        <v>20107</v>
+      <c r="F10" s="6">
+        <v>20101</v>
       </c>
       <c r="G10" s="2">
         <v>1</v>
@@ -800,8 +846,11 @@
       <c r="H10" s="5">
         <v>70000000</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I10" s="6">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>108</v>
       </c>
@@ -815,8 +864,8 @@
       <c r="E11" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F11" s="2">
-        <v>20108</v>
+      <c r="F11" s="6">
+        <v>20101</v>
       </c>
       <c r="G11" s="2">
         <v>1</v>
@@ -824,8 +873,11 @@
       <c r="H11" s="5">
         <v>10000000000</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I11" s="6">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>109</v>
       </c>
@@ -839,8 +891,8 @@
       <c r="E12" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="F12" s="2">
-        <v>20109</v>
+      <c r="F12" s="6">
+        <v>20101</v>
       </c>
       <c r="G12" s="2">
         <v>1</v>
@@ -848,8 +900,11 @@
       <c r="H12" s="5" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I12" s="6">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>110</v>
       </c>
@@ -863,8 +918,8 @@
       <c r="E13" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="F13" s="2">
-        <v>20110</v>
+      <c r="F13" s="6">
+        <v>20101</v>
       </c>
       <c r="G13" s="2">
         <v>1</v>
@@ -872,8 +927,11 @@
       <c r="H13" s="5" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I13" s="6">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>111</v>
       </c>
@@ -889,8 +947,8 @@
       <c r="E14" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F14" s="2">
-        <v>20111</v>
+      <c r="F14" s="6">
+        <v>20201</v>
       </c>
       <c r="G14" s="2">
         <v>1</v>
@@ -898,8 +956,11 @@
       <c r="H14" s="5" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I14" s="6">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>112</v>
       </c>
@@ -913,8 +974,8 @@
       <c r="E15" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F15" s="2">
-        <v>20112</v>
+      <c r="F15" s="6">
+        <v>20201</v>
       </c>
       <c r="G15" s="2">
         <v>1</v>
@@ -922,8 +983,11 @@
       <c r="H15" s="5" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I15" s="6">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>113</v>
       </c>
@@ -937,8 +1001,8 @@
       <c r="E16" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="F16" s="2">
-        <v>20113</v>
+      <c r="F16" s="6">
+        <v>20201</v>
       </c>
       <c r="G16" s="2">
         <v>1</v>
@@ -946,8 +1010,11 @@
       <c r="H16" s="5" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I16" s="6">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>114</v>
       </c>
@@ -961,8 +1028,8 @@
       <c r="E17" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F17" s="2">
-        <v>20114</v>
+      <c r="F17" s="6">
+        <v>20201</v>
       </c>
       <c r="G17" s="2">
         <v>1</v>
@@ -970,8 +1037,11 @@
       <c r="H17" s="5" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I17" s="6">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>115</v>
       </c>
@@ -985,8 +1055,8 @@
       <c r="E18" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="F18" s="2">
-        <v>20115</v>
+      <c r="F18" s="6">
+        <v>20201</v>
       </c>
       <c r="G18" s="2">
         <v>1</v>
@@ -994,8 +1064,11 @@
       <c r="H18" s="5" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I18" s="6">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>116</v>
       </c>
@@ -1009,8 +1082,8 @@
       <c r="E19" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="F19" s="2">
-        <v>20116</v>
+      <c r="F19" s="6">
+        <v>20201</v>
       </c>
       <c r="G19" s="2">
         <v>1</v>
@@ -1018,8 +1091,11 @@
       <c r="H19" s="5" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I19" s="6">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <v>117</v>
       </c>
@@ -1033,8 +1109,8 @@
       <c r="E20" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="F20" s="2">
-        <v>20117</v>
+      <c r="F20" s="6">
+        <v>20201</v>
       </c>
       <c r="G20" s="2">
         <v>1</v>
@@ -1042,8 +1118,11 @@
       <c r="H20" s="5" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I20" s="6">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>118</v>
       </c>
@@ -1057,8 +1136,8 @@
       <c r="E21" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F21" s="2">
-        <v>20118</v>
+      <c r="F21" s="6">
+        <v>20201</v>
       </c>
       <c r="G21" s="2">
         <v>1</v>
@@ -1066,8 +1145,11 @@
       <c r="H21" s="5" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I21" s="6">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <v>119</v>
       </c>
@@ -1081,8 +1163,8 @@
       <c r="E22" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="F22" s="2">
-        <v>20119</v>
+      <c r="F22" s="6">
+        <v>20201</v>
       </c>
       <c r="G22" s="2">
         <v>1</v>
@@ -1090,8 +1172,11 @@
       <c r="H22" s="5" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I22" s="6">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
         <v>120</v>
       </c>
@@ -1105,8 +1190,8 @@
       <c r="E23" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="F23" s="2">
-        <v>20120</v>
+      <c r="F23" s="6">
+        <v>20201</v>
       </c>
       <c r="G23" s="2">
         <v>1</v>
@@ -1114,8 +1199,11 @@
       <c r="H23" s="5" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I23" s="6">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
         <v>121</v>
       </c>
@@ -1131,8 +1219,8 @@
       <c r="E24" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F24" s="2">
-        <v>20121</v>
+      <c r="F24" s="6">
+        <v>20211</v>
       </c>
       <c r="G24" s="2">
         <v>4</v>
@@ -1140,8 +1228,11 @@
       <c r="H24" s="5">
         <v>10</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I24" s="6">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
         <v>122</v>
       </c>
@@ -1155,8 +1246,8 @@
       <c r="E25" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F25" s="2">
-        <v>20122</v>
+      <c r="F25" s="6">
+        <v>20211</v>
       </c>
       <c r="G25" s="2">
         <v>4</v>
@@ -1164,8 +1255,11 @@
       <c r="H25" s="5">
         <v>100</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I25" s="6">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
         <v>123</v>
       </c>
@@ -1179,8 +1273,8 @@
       <c r="E26" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="F26" s="2">
-        <v>20123</v>
+      <c r="F26" s="6">
+        <v>20211</v>
       </c>
       <c r="G26" s="2">
         <v>4</v>
@@ -1188,8 +1282,11 @@
       <c r="H26" s="5">
         <v>1000</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I26" s="6">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
         <v>124</v>
       </c>
@@ -1203,8 +1300,8 @@
       <c r="E27" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F27" s="2">
-        <v>20124</v>
+      <c r="F27" s="6">
+        <v>20211</v>
       </c>
       <c r="G27" s="2">
         <v>4</v>
@@ -1212,8 +1309,11 @@
       <c r="H27" s="5">
         <v>10000</v>
       </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I27" s="6">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
         <v>125</v>
       </c>
@@ -1227,8 +1327,8 @@
       <c r="E28" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="F28" s="2">
-        <v>20125</v>
+      <c r="F28" s="6">
+        <v>20211</v>
       </c>
       <c r="G28" s="2">
         <v>4</v>
@@ -1236,8 +1336,11 @@
       <c r="H28" s="5">
         <v>100000</v>
       </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I28" s="6">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" s="2">
         <v>126</v>
       </c>
@@ -1251,8 +1354,8 @@
       <c r="E29" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="F29" s="2">
-        <v>20126</v>
+      <c r="F29" s="6">
+        <v>20211</v>
       </c>
       <c r="G29" s="2">
         <v>4</v>
@@ -1260,8 +1363,11 @@
       <c r="H29" s="5">
         <v>1000000</v>
       </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I29" s="6">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
         <v>127</v>
       </c>
@@ -1275,8 +1381,8 @@
       <c r="E30" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="F30" s="2">
-        <v>20127</v>
+      <c r="F30" s="6">
+        <v>20211</v>
       </c>
       <c r="G30" s="2">
         <v>4</v>
@@ -1284,8 +1390,11 @@
       <c r="H30" s="5">
         <v>10000000</v>
       </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I30" s="6">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" s="2">
         <v>128</v>
       </c>
@@ -1299,8 +1408,8 @@
       <c r="E31" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F31" s="2">
-        <v>20128</v>
+      <c r="F31" s="6">
+        <v>20211</v>
       </c>
       <c r="G31" s="2">
         <v>4</v>
@@ -1308,8 +1417,11 @@
       <c r="H31" s="5">
         <v>100000000</v>
       </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I31" s="6">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" s="2">
         <v>129</v>
       </c>
@@ -1323,8 +1435,8 @@
       <c r="E32" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="F32" s="2">
-        <v>20129</v>
+      <c r="F32" s="6">
+        <v>20211</v>
       </c>
       <c r="G32" s="2">
         <v>4</v>
@@ -1332,8 +1444,11 @@
       <c r="H32" s="5">
         <v>1000000000</v>
       </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I32" s="6">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" s="2">
         <v>130</v>
       </c>
@@ -1347,14 +1462,17 @@
       <c r="E33" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="F33" s="2">
-        <v>20130</v>
+      <c r="F33" s="6">
+        <v>20211</v>
       </c>
       <c r="G33" s="2">
         <v>4</v>
       </c>
       <c r="H33" s="5">
         <v>10000000000</v>
+      </c>
+      <c r="I33" s="6">
+        <v>110</v>
       </c>
     </row>
   </sheetData>

--- a/excel/manager.xlsx
+++ b/excel/manager.xlsx
@@ -18,6 +18,44 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>作者</author>
+  </authors>
+  <commentList>
+    <comment ref="F1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+效果表类型：
+21.矿产自动产出
+22.矿产升级减价（参数：百分之/1000）</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="47">
   <si>
@@ -202,7 +240,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -216,6 +254,21 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="4">
@@ -554,11 +607,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1479,5 +1532,6 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>